--- a/Nano_Short_Length.xlsx
+++ b/Nano_Short_Length.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\Thesis\ThesisCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C821061-6FCD-4106-9321-06793149CA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2AC417-C862-475E-AEC2-8094BED27EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{BA1E1A43-70CB-4CC3-BD7A-D0CD8465D6E0}"/>
+    <workbookView xWindow="18750" yWindow="1785" windowWidth="18735" windowHeight="17910" firstSheet="22" activeTab="23" xr2:uid="{BA1E1A43-70CB-4CC3-BD7A-D0CD8465D6E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Graph" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,7 @@
     <definedName name="ExternalData_1" localSheetId="8" hidden="1">Nano_XXTEA_ShortLength_16Key!$D$1:$E$201</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7558,7 +7559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EA40E1-5B5F-4750-B526-3681DBBD1DB4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -7576,7 +7577,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11042,8 +11043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B67B408-9374-44F8-977B-81C3B93DC2A4}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14503,7 +14504,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17963,7 +17964,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22031,7 +22032,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26100,7 +26101,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30160,7 +30161,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33625,7 +33626,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37085,7 +37086,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40550,7 +40551,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44014,8 +44015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3614F618-BE0D-4266-B647-031B8F58F069}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203:XFD203"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47475,7 +47476,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50934,8 +50935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615E30A0-3A64-40B0-B776-206F7002C17F}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54401,7 +54402,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58461,7 +58462,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61920,8 +61921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE2E5B2-FBE7-447F-A40F-30595C5EE413}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65382,7 +65383,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68847,7 +68848,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72915,7 +72916,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76984,7 +76985,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80444,7 +80445,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83907,8 +83908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C2F99D-D7BB-4BB9-A961-509B24C81481}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -87977,7 +87978,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD203"/>
+      <selection activeCell="B203" sqref="B203:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
